--- a/TIEN MUNG DAM CUOI.xlsx
+++ b/TIEN MUNG DAM CUOI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Cậu mợ Long</t>
   </si>
@@ -142,6 +142,153 @@
   </si>
   <si>
     <t>Thầy Tuyến</t>
+  </si>
+  <si>
+    <t>Ông chú</t>
+  </si>
+  <si>
+    <t>Phương Anh</t>
+  </si>
+  <si>
+    <t>Ngọc Anh</t>
+  </si>
+  <si>
+    <t>Thúy Anh</t>
+  </si>
+  <si>
+    <t>Tố Anh</t>
+  </si>
+  <si>
+    <t>Chị Dung</t>
+  </si>
+  <si>
+    <t>Chị Lan</t>
+  </si>
+  <si>
+    <t>Vợ chồng Tý</t>
+  </si>
+  <si>
+    <t>Vợ chồng Nga nhỏ</t>
+  </si>
+  <si>
+    <t>Vợ chồng Nam</t>
+  </si>
+  <si>
+    <t>Ông Chộc (Điền)</t>
+  </si>
+  <si>
+    <t>Cô Mỉu</t>
+  </si>
+  <si>
+    <t>Anh Quý</t>
+  </si>
+  <si>
+    <t>Anh Cách</t>
+  </si>
+  <si>
+    <t>Ba mẹ vợ Thành</t>
+  </si>
+  <si>
+    <t>Tín</t>
+  </si>
+  <si>
+    <t>Bích</t>
+  </si>
+  <si>
+    <t>Út Hào</t>
+  </si>
+  <si>
+    <t>Dì Út</t>
+  </si>
+  <si>
+    <t>Chị Tư Hồng</t>
+  </si>
+  <si>
+    <t>Sáng</t>
+  </si>
+  <si>
+    <t>Nghĩa</t>
+  </si>
+  <si>
+    <t>Tân</t>
+  </si>
+  <si>
+    <t>Chị Hai Thủy</t>
+  </si>
+  <si>
+    <t>Xuân Trang</t>
+  </si>
+  <si>
+    <t>VC Tuyết Loan</t>
+  </si>
+  <si>
+    <t>VC Cháu Tài</t>
+  </si>
+  <si>
+    <t>Anh Hiệp</t>
+  </si>
+  <si>
+    <t>Thanh Phong</t>
+  </si>
+  <si>
+    <t>Mai Hân</t>
+  </si>
+  <si>
+    <t>Tuyết Anh</t>
+  </si>
+  <si>
+    <t>VC Bim</t>
+  </si>
+  <si>
+    <t>VC Vân</t>
+  </si>
+  <si>
+    <t>GĐ Em Huệ</t>
+  </si>
+  <si>
+    <t>GĐ Em Cẩu Woòng</t>
+  </si>
+  <si>
+    <t>Trường (Na)</t>
+  </si>
+  <si>
+    <t>Quý nhỏ</t>
+  </si>
+  <si>
+    <t>Anh Tuấn</t>
+  </si>
+  <si>
+    <t>Anh Thông</t>
+  </si>
+  <si>
+    <t>Anh Thống</t>
+  </si>
+  <si>
+    <t>Trí</t>
+  </si>
+  <si>
+    <t>Anh Tư Hưng</t>
+  </si>
+  <si>
+    <t>Anh Ngọt</t>
+  </si>
+  <si>
+    <t>Anh Thoại</t>
+  </si>
+  <si>
+    <t>Anh Nho</t>
+  </si>
+  <si>
+    <t>VC Thanh Đẹp</t>
+  </si>
+  <si>
+    <t>VC Em Quý</t>
+  </si>
+  <si>
+    <t>Anh Tài</t>
+  </si>
+  <si>
+    <t>K.Loan</t>
   </si>
 </sst>
 </file>
@@ -151,7 +298,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -169,12 +316,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -217,21 +376,58 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -507,212 +703,570 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q11"/>
+  <dimension ref="A2:S37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="4">
         <v>100</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1000</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="5">
+        <v>4000</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3">
-        <v>500</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="3">
+        <v>500</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="5">
-        <v>500</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="5">
+        <v>500</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P2" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="4">
         <v>100</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
-        <v>500</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3">
-        <v>500</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="3">
+        <v>500</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="5">
+      <c r="M3" s="5">
         <v>200</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P3" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="4">
         <v>100</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3">
+        <v>300</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D5" s="7"/>
+      <c r="E5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2000</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1000</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="5">
+        <v>500</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>500</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2000</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="5">
+        <v>500</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="B8" s="5">
         <v>2000</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="D8" s="7"/>
+      <c r="E8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="O8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5">
+        <v>600</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="5">
+        <v>500</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="5">
+        <v>500</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="5">
+        <v>500</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="E13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="5">
+        <v>4000</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="5">
+        <v>500</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="5">
         <v>300</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="5">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="5">
+        <v>500</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="5">
+        <v>500</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="5">
+        <v>500</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="5">
+        <v>500</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="5">
+        <v>400</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="5">
+        <v>500</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="5">
+        <v>400</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="5">
+        <v>400</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E35" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E36" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="5">
         <v>600</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="5">
-        <v>500</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1000</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="5">
-        <v>500</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="5">
-        <v>2000</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="M8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="5">
-        <v>500</v>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -720,7 +1274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
